--- a/DB/DB(설명).xlsx
+++ b/DB/DB(설명).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azzcom\Documents\GitHub\project\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azzcom\DOCUME~1\GitHub\project\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC6EE1E-69DF-434C-84FD-6E8E5E8845F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5B6933-9B22-48C8-B393-0E06B574055B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="4935" windowWidth="28800" windowHeight="15435" xr2:uid="{5991019C-14FA-4188-AABD-D531A2427142}"/>
+    <workbookView xWindow="18075" yWindow="4035" windowWidth="28800" windowHeight="15435" xr2:uid="{5991019C-14FA-4188-AABD-D531A2427142}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="285">
   <si>
     <t>Table:[grp].[grp_calendar]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1102,6 +1102,66 @@
   </si>
   <si>
     <t>구분 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항, 일반게시물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 게시 일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1160,7 +1220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1182,11 +1242,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1508,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BCB2F5-68AB-4B4B-B2CB-994C20AF1704}">
-  <dimension ref="A1:H242"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G145" sqref="G145:H158"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1522,18 +1588,18 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1541,10 +1607,10 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1552,130 +1618,130 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="10"/>
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="10"/>
       <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="10"/>
       <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="10"/>
       <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="10"/>
       <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -1683,18 +1749,18 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1702,10 +1768,10 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1713,118 +1779,118 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="10"/>
       <c r="F18" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="10"/>
       <c r="F19" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="10"/>
       <c r="F20" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="10"/>
       <c r="F21" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -1832,18 +1898,18 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -1851,10 +1917,10 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1862,262 +1928,262 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="10"/>
       <c r="F30" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="10"/>
       <c r="F31" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="10"/>
       <c r="F32" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="10"/>
       <c r="F33" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="11"/>
       <c r="F34" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="10"/>
       <c r="F35" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>7</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="7" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="10"/>
       <c r="F36" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="11"/>
       <c r="F37" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="H37" s="7"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>9</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="9"/>
+      <c r="E38" s="11"/>
       <c r="F38" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="11"/>
       <c r="F39" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>11</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9" t="s">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="11"/>
       <c r="F40" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="H40" s="7"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -2125,18 +2191,18 @@
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -2144,10 +2210,10 @@
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -2155,3419 +2221,3468 @@
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10" t="s">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="10"/>
+      <c r="E48" s="12"/>
       <c r="F48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H48" s="10"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7" t="s">
+      <c r="C49" s="10"/>
+      <c r="D49" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="7"/>
+      <c r="E49" s="10"/>
       <c r="F49" t="s">
         <v>44</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="H49" s="7"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7" t="s">
+      <c r="C50" s="10"/>
+      <c r="D50" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="7"/>
+      <c r="E50" s="10"/>
       <c r="F50" t="s">
         <v>44</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="H50" s="7"/>
+      <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7" t="s">
+      <c r="C51" s="10"/>
+      <c r="D51" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E51" s="7"/>
+      <c r="E51" s="10"/>
       <c r="F51" t="s">
         <v>44</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="H51" s="7"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7" t="s">
+      <c r="C52" s="10"/>
+      <c r="D52" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E52" s="7"/>
+      <c r="E52" s="10"/>
       <c r="F52" t="s">
         <v>44</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H52" s="7"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="7" t="s">
+      <c r="C53" s="11"/>
+      <c r="D53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E53" s="7"/>
+      <c r="E53" s="10"/>
       <c r="F53" t="s">
         <v>44</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="H53" s="7"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>6</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="7" t="s">
+      <c r="C54" s="11"/>
+      <c r="D54" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E54" s="7"/>
+      <c r="E54" s="10"/>
       <c r="F54" t="s">
         <v>44</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="H54" s="7"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>7</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="7" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="7"/>
+      <c r="E55" s="10"/>
       <c r="F55" t="s">
         <v>44</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="H55" s="7"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>8</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="7" t="s">
+      <c r="C56" s="11"/>
+      <c r="D56" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="7"/>
+      <c r="E56" s="10"/>
       <c r="F56" t="s">
         <v>44</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="H56" s="7"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>9</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9" t="s">
+      <c r="C57" s="11"/>
+      <c r="D57" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E57" s="9"/>
+      <c r="E57" s="11"/>
       <c r="F57" t="s">
         <v>44</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="H57" s="7"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>10</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9" t="s">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="9"/>
+      <c r="E58" s="11"/>
       <c r="F58" t="s">
         <v>44</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H58" s="7"/>
+      <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>11</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9" t="s">
+      <c r="C59" s="11"/>
+      <c r="D59" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="9"/>
+      <c r="E59" s="11"/>
       <c r="F59" t="s">
         <v>44</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H59" s="7"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>12</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9" t="s">
+      <c r="C60" s="11"/>
+      <c r="D60" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="9"/>
+      <c r="E60" s="11"/>
       <c r="F60" t="s">
         <v>44</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H60" s="7"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>13</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9" t="s">
+      <c r="C61" s="11"/>
+      <c r="D61" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E61" s="9"/>
+      <c r="E61" s="11"/>
       <c r="F61" t="s">
         <v>44</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="H61" s="7"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>14</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9" t="s">
+      <c r="C62" s="11"/>
+      <c r="D62" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E62" s="9"/>
+      <c r="E62" s="11"/>
       <c r="F62" t="s">
         <v>44</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="H62" s="7"/>
+      <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>15</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9" t="s">
+      <c r="C63" s="11"/>
+      <c r="D63" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E63" s="9"/>
+      <c r="E63" s="11"/>
       <c r="F63" t="s">
         <v>44</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="H63" s="7"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>16</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9" t="s">
+      <c r="C64" s="11"/>
+      <c r="D64" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E64" s="9"/>
+      <c r="E64" s="11"/>
       <c r="F64" t="s">
         <v>44</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="H64" s="7"/>
+      <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>17</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9" t="s">
+      <c r="C65" s="11"/>
+      <c r="D65" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E65" s="9"/>
+      <c r="E65" s="11"/>
       <c r="F65" t="s">
         <v>44</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="H65" s="7"/>
+      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>18</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9" t="s">
+      <c r="C66" s="11"/>
+      <c r="D66" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E66" s="9"/>
+      <c r="E66" s="11"/>
       <c r="F66" t="s">
         <v>44</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="H66" s="7"/>
+      <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>19</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9" t="s">
+      <c r="C67" s="11"/>
+      <c r="D67" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="9"/>
+      <c r="E67" s="11"/>
       <c r="F67" t="s">
         <v>44</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G67" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="H67" s="7"/>
+      <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>20</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9" t="s">
+      <c r="C68" s="11"/>
+      <c r="D68" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E68" s="9"/>
+      <c r="E68" s="11"/>
       <c r="F68" t="s">
         <v>44</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G68" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="H68" s="7"/>
+      <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>21</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9" t="s">
+      <c r="C69" s="11"/>
+      <c r="D69" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E69" s="9"/>
+      <c r="E69" s="11"/>
       <c r="F69" t="s">
         <v>44</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G69" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="H69" s="7"/>
+      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>22</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9" t="s">
+      <c r="C70" s="11"/>
+      <c r="D70" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E70" s="9"/>
+      <c r="E70" s="11"/>
       <c r="F70" t="s">
         <v>44</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H70" s="7"/>
+      <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>23</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9" t="s">
+      <c r="C71" s="11"/>
+      <c r="D71" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E71" s="9"/>
+      <c r="E71" s="11"/>
       <c r="F71" t="s">
         <v>44</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G71" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="H71" s="7"/>
+      <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>24</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9" t="s">
+      <c r="C72" s="11"/>
+      <c r="D72" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E72" s="9"/>
+      <c r="E72" s="11"/>
       <c r="F72" t="s">
         <v>44</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G72" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="H72" s="7"/>
+      <c r="H72" s="10"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>25</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9" t="s">
+      <c r="C73" s="11"/>
+      <c r="D73" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E73" s="9"/>
+      <c r="E73" s="11"/>
       <c r="F73" t="s">
         <v>44</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G73" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="H73" s="7"/>
+      <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>26</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9" t="s">
+      <c r="C74" s="11"/>
+      <c r="D74" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E74" s="9"/>
+      <c r="E74" s="11"/>
       <c r="F74" t="s">
         <v>44</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G74" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="H74" s="7"/>
+      <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>27</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9" t="s">
+      <c r="C75" s="11"/>
+      <c r="D75" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E75" s="9"/>
+      <c r="E75" s="11"/>
       <c r="F75" t="s">
         <v>44</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="G75" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="H75" s="7"/>
+      <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>28</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9" t="s">
+      <c r="C76" s="11"/>
+      <c r="D76" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E76" s="9"/>
+      <c r="E76" s="11"/>
       <c r="F76" t="s">
         <v>44</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G76" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="H76" s="7"/>
+      <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>29</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9" t="s">
+      <c r="C77" s="11"/>
+      <c r="D77" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E77" s="9"/>
+      <c r="E77" s="11"/>
       <c r="F77" t="s">
         <v>44</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="G77" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="H77" s="7"/>
+      <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>30</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9" t="s">
+      <c r="C78" s="11"/>
+      <c r="D78" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="9"/>
+      <c r="E78" s="11"/>
       <c r="F78" t="s">
         <v>17</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H78" s="7"/>
+      <c r="H78" s="10"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>31</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="9" t="s">
+      <c r="C79" s="10"/>
+      <c r="D79" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E79" s="9"/>
+      <c r="E79" s="11"/>
       <c r="F79" t="s">
         <v>44</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="H79" s="10"/>
+    </row>
+    <row r="81" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B90" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10" t="s">
+      <c r="C90" s="12"/>
+      <c r="D90" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="3" t="s">
+      <c r="E90" s="12"/>
+      <c r="F90" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="G90" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H87" s="10"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="7"/>
-      <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H88" s="7"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>2</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E89" s="7"/>
-      <c r="F89" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H89" s="7"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>3</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E90" s="7"/>
-      <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H90" s="7"/>
+      <c r="H90" s="12"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>4</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E91" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="10"/>
       <c r="F91" t="s">
         <v>17</v>
       </c>
-      <c r="G91" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H91" s="7"/>
+      <c r="G91" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="H91" s="10"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>5</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E92" s="7"/>
+      <c r="E92" s="10"/>
       <c r="F92" t="s">
         <v>17</v>
       </c>
-      <c r="G92" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H92" s="7"/>
+      <c r="G92" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H92" s="10"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>6</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E93" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93" s="10"/>
       <c r="F93" t="s">
         <v>17</v>
       </c>
-      <c r="G93" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H93" s="7"/>
+      <c r="G93" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H93" s="10"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>7</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E94" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" s="10"/>
       <c r="F94" t="s">
-        <v>44</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H94" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H94" s="10"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>8</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E95" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="11"/>
+      <c r="D95" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" s="10"/>
       <c r="F95" t="s">
-        <v>44</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H95" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="H95" s="10"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>9</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E96" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E96" s="10"/>
       <c r="F96" t="s">
-        <v>44</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H96" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="H96" s="10"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>10</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" s="11"/>
+      <c r="D97" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E97" s="7"/>
+      <c r="E97" s="10"/>
       <c r="F97" t="s">
         <v>44</v>
       </c>
-      <c r="G97" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H97" s="7"/>
+      <c r="G97" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H97" s="10"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>11</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E98" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" s="10"/>
       <c r="F98" t="s">
         <v>44</v>
       </c>
-      <c r="G98" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H98" s="7"/>
+      <c r="G98" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H98" s="10"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>12</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E99" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" s="11"/>
+      <c r="D99" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E99" s="10"/>
       <c r="F99" t="s">
         <v>44</v>
       </c>
-      <c r="G99" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H99" s="7"/>
+      <c r="G99" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="H99" s="10"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>13</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E100" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="11"/>
+      <c r="D100" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E100" s="10"/>
       <c r="F100" t="s">
         <v>44</v>
       </c>
-      <c r="G100" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H100" s="7"/>
+      <c r="G100" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="H100" s="10"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
+        <v>11</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" s="11"/>
+      <c r="F101" t="s">
+        <v>44</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="H101" s="10"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>12</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" s="11"/>
+      <c r="F102" t="s">
+        <v>44</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H102" s="10"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>13</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" s="11"/>
+      <c r="F103" t="s">
+        <v>44</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H103" s="10"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104">
         <v>14</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B104" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9" t="s">
+      <c r="C104" s="11"/>
+      <c r="D104" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E101" s="9"/>
-      <c r="F101" t="s">
+      <c r="E104" s="11"/>
+      <c r="F104" t="s">
         <v>17</v>
       </c>
-      <c r="G101" s="7" t="s">
+      <c r="G104" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="H101" s="7"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="H104" s="10"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>2</v>
       </c>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B111" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10" t="s">
+      <c r="C111" s="12"/>
+      <c r="D111" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E108" s="10"/>
-      <c r="F108" s="3" t="s">
+      <c r="E111" s="12"/>
+      <c r="F111" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G108" s="10" t="s">
+      <c r="G111" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H108" s="10"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="H111" s="12"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>1</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B112" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7" t="s">
+      <c r="C112" s="10"/>
+      <c r="D112" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E109" s="7"/>
-      <c r="F109" t="s">
+      <c r="E112" s="10"/>
+      <c r="F112" t="s">
         <v>17</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="G112" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="H109" s="7"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="H112" s="10"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113">
         <v>2</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B113" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7" t="s">
+      <c r="C113" s="10"/>
+      <c r="D113" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E110" s="7"/>
-      <c r="F110" t="s">
+      <c r="E113" s="10"/>
+      <c r="F113" t="s">
         <v>17</v>
       </c>
-      <c r="G110" s="7" t="s">
+      <c r="G113" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H110" s="7"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="H113" s="10"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="5"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="5"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B120" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10" t="s">
+      <c r="C120" s="12"/>
+      <c r="D120" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E117" s="10"/>
-      <c r="F117" s="3" t="s">
+      <c r="E120" s="12"/>
+      <c r="F120" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G117" s="10" t="s">
+      <c r="G120" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H117" s="10"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="5">
+      <c r="H120" s="12"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="5">
         <v>1</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B121" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7" t="s">
+      <c r="C121" s="10"/>
+      <c r="D121" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E118" s="7"/>
-      <c r="F118" s="5" t="s">
+      <c r="E121" s="10"/>
+      <c r="F121" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G118" s="7" t="s">
+      <c r="G121" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="H118" s="7"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="5">
+      <c r="H121" s="10"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="5">
         <v>2</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B122" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7" t="s">
+      <c r="C122" s="10"/>
+      <c r="D122" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E119" s="7"/>
-      <c r="F119" s="5" t="s">
+      <c r="E122" s="10"/>
+      <c r="F122" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="G122" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="H119" s="7"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="H122" s="10"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="5"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="5"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B129" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10" t="s">
+      <c r="C129" s="12"/>
+      <c r="D129" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="10"/>
-      <c r="F126" s="3" t="s">
+      <c r="E129" s="12"/>
+      <c r="F129" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G126" s="10" t="s">
+      <c r="G129" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H126" s="10"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="5">
-        <v>1</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E127" s="7"/>
-      <c r="F127" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H127" s="7"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="5">
-        <v>2</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E128" s="7"/>
-      <c r="F128" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H128" s="7"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="5">
-        <v>3</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E129" s="7"/>
-      <c r="F129" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H129" s="7"/>
+      <c r="H129" s="12"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
-        <v>4</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E130" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E130" s="10"/>
       <c r="F130" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G130" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H130" s="7"/>
+      <c r="G130" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H130" s="10"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
-        <v>5</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E131" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E131" s="10"/>
       <c r="F131" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G131" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H131" s="7"/>
+      <c r="G131" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="H131" s="10"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
-        <v>6</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E132" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E132" s="10"/>
       <c r="F132" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G132" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H132" s="7"/>
+      <c r="G132" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="H132" s="10"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
-        <v>7</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E133" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E133" s="10"/>
       <c r="F133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G133" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H133" s="7"/>
+      <c r="G133" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="H133" s="10"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
-        <v>8</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E134" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E134" s="10"/>
       <c r="F134" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G134" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H134" s="7"/>
+      <c r="G134" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="H134" s="10"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
-        <v>9</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E135" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E135" s="11"/>
       <c r="F135" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G135" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H135" s="7"/>
+      <c r="G135" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="H135" s="10"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
-        <v>10</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E136" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E136" s="11"/>
       <c r="F136" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G136" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H136" s="7"/>
+      <c r="G136" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H136" s="10"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
+        <v>8</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E137" s="11"/>
+      <c r="F137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="H137" s="10"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="5">
+        <v>9</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E138" s="11"/>
+      <c r="F138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="H138" s="10"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="5">
+        <v>10</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E139" s="11"/>
+      <c r="F139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H139" s="10"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="5">
         <v>11</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B140" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9" t="s">
+      <c r="C140" s="11"/>
+      <c r="D140" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E137" s="9"/>
-      <c r="F137" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G137" s="7" t="s">
+      <c r="E140" s="11"/>
+      <c r="F140" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G140" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="H137" s="7"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+      <c r="H140" s="10"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="5"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="5" t="s">
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="5"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="5" t="s">
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B147" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10" t="s">
+      <c r="C147" s="12"/>
+      <c r="D147" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E144" s="10"/>
-      <c r="F144" s="3" t="s">
+      <c r="E147" s="12"/>
+      <c r="F147" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G144" s="10" t="s">
+      <c r="G147" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H144" s="10"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="5">
-        <v>1</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E145" s="7"/>
-      <c r="F145" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H145" s="7"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="5">
-        <v>2</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E146" s="7"/>
-      <c r="F146" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H146" s="7"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="5">
-        <v>3</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E147" s="7"/>
-      <c r="F147" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H147" s="7"/>
+      <c r="H147" s="12"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
-        <v>4</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E148" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="10"/>
       <c r="F148" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G148" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H148" s="7"/>
+      <c r="G148" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="H148" s="10"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
-        <v>5</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C149" s="9"/>
-      <c r="D149" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E149" s="7"/>
+      <c r="E149" s="10"/>
       <c r="F149" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G149" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H149" s="7"/>
+      <c r="G149" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H149" s="10"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
-        <v>6</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C150" s="9"/>
-      <c r="D150" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E150" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E150" s="10"/>
       <c r="F150" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G150" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H150" s="7"/>
+      <c r="G150" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H150" s="10"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
-        <v>7</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E151" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E151" s="10"/>
       <c r="F151" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H151" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H151" s="10"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
-        <v>8</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C152" s="9"/>
-      <c r="D152" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E152" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C152" s="11"/>
+      <c r="D152" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E152" s="10"/>
       <c r="F152" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H152" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="H152" s="10"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
-        <v>9</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C153" s="9"/>
-      <c r="D153" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E153" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C153" s="11"/>
+      <c r="D153" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E153" s="10"/>
       <c r="F153" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H153" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="H153" s="10"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
-        <v>10</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C154" s="9"/>
-      <c r="D154" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C154" s="11"/>
+      <c r="D154" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E154" s="7"/>
+      <c r="E154" s="10"/>
       <c r="F154" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G154" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H154" s="7"/>
+      <c r="G154" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H154" s="10"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
-        <v>11</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E155" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C155" s="11"/>
+      <c r="D155" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E155" s="10"/>
       <c r="F155" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G155" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H155" s="7"/>
+      <c r="G155" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H155" s="10"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
-        <v>12</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E156" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C156" s="11"/>
+      <c r="D156" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E156" s="10"/>
       <c r="F156" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G156" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H156" s="7"/>
+      <c r="G156" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="H156" s="10"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
-        <v>13</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E157" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C157" s="11"/>
+      <c r="D157" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E157" s="10"/>
       <c r="F157" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G157" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H157" s="7"/>
+      <c r="G157" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="H157" s="10"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
+        <v>11</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E158" s="11"/>
+      <c r="F158" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="H158" s="10"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="5">
+        <v>12</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E159" s="11"/>
+      <c r="F159" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H159" s="10"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="5">
+        <v>13</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E160" s="11"/>
+      <c r="F160" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G160" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H160" s="10"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="5">
         <v>14</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B161" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9" t="s">
+      <c r="C161" s="11"/>
+      <c r="D161" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E158" s="9"/>
-      <c r="F158" s="5" t="s">
+      <c r="E161" s="11"/>
+      <c r="F161" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="G161" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="H158" s="7"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+      <c r="H161" s="10"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="5"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="5" t="s">
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="5"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="5" t="s">
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B168" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10" t="s">
+      <c r="C168" s="12"/>
+      <c r="D168" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E165" s="10"/>
-      <c r="F165" s="3" t="s">
+      <c r="E168" s="12"/>
+      <c r="F168" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G165" s="10" t="s">
+      <c r="G168" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H165" s="10"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="5">
-        <v>1</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E166" s="7"/>
-      <c r="F166" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H166" s="7"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="5">
-        <v>2</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E167" s="7"/>
-      <c r="F167" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H167" s="7"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="5">
-        <v>3</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E168" s="7"/>
-      <c r="F168" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H168" s="7"/>
+      <c r="H168" s="12"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
-        <v>4</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E169" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" s="10"/>
       <c r="F169" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G169" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H169" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="G169" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H169" s="10"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
-        <v>5</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C170" s="9"/>
-      <c r="D170" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E170" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E170" s="10"/>
       <c r="F170" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G170" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H170" s="7"/>
+      <c r="G170" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H170" s="10"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
-        <v>6</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C171" s="9"/>
-      <c r="D171" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E171" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E171" s="10"/>
       <c r="F171" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G171" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H171" s="7"/>
+      <c r="G171" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="H171" s="10"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
-        <v>7</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C172" s="9"/>
-      <c r="D172" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E172" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E172" s="10"/>
       <c r="F172" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G172" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H172" s="7"/>
+      <c r="G172" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H172" s="10"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
-        <v>8</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C173" s="9"/>
-      <c r="D173" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E173" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C173" s="11"/>
+      <c r="D173" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E173" s="10"/>
       <c r="F173" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G173" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H173" s="7"/>
+      <c r="G173" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="H173" s="10"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
-        <v>9</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C174" s="9"/>
-      <c r="D174" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E174" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C174" s="11"/>
+      <c r="D174" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E174" s="10"/>
       <c r="F174" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G174" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H174" s="7"/>
+      <c r="G174" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="H174" s="10"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
-        <v>10</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C175" s="9"/>
-      <c r="D175" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E175" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C175" s="11"/>
+      <c r="D175" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E175" s="10"/>
       <c r="F175" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G175" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H175" s="7"/>
+      <c r="G175" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H175" s="10"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="5">
-        <v>11</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C176" s="9"/>
-      <c r="D176" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E176" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C176" s="11"/>
+      <c r="D176" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E176" s="10"/>
       <c r="F176" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G176" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H176" s="7"/>
+      <c r="G176" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H176" s="10"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
-        <v>12</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C177" s="9"/>
-      <c r="D177" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E177" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E177" s="11"/>
       <c r="F177" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G177" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H177" s="7"/>
+      <c r="G177" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H177" s="10"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
-        <v>13</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C178" s="9"/>
-      <c r="D178" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E178" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E178" s="11"/>
       <c r="F178" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G178" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H178" s="7"/>
+      <c r="G178" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H178" s="10"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
-        <v>14</v>
-      </c>
-      <c r="B179" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C179" s="9"/>
-      <c r="D179" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E179" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C179" s="11"/>
+      <c r="D179" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E179" s="10"/>
       <c r="F179" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G179" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H179" s="7"/>
+      <c r="G179" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H179" s="10"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
-        <v>15</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C180" s="9"/>
-      <c r="D180" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E180" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C180" s="11"/>
+      <c r="D180" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E180" s="10"/>
       <c r="F180" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G180" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H180" s="7"/>
+      <c r="G180" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H180" s="10"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
-        <v>16</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C181" s="9"/>
-      <c r="D181" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E181" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C181" s="11"/>
+      <c r="D181" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E181" s="10"/>
       <c r="F181" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G181" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H181" s="7"/>
+      <c r="G181" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H181" s="10"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
-        <v>17</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C182" s="9"/>
-      <c r="D182" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E182" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C182" s="11"/>
+      <c r="D182" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E182" s="10"/>
       <c r="F182" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G182" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H182" s="7"/>
+      <c r="G182" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H182" s="10"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
-        <v>18</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C183" s="9"/>
-      <c r="D183" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E183" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C183" s="11"/>
+      <c r="D183" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E183" s="10"/>
       <c r="F183" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G183" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H183" s="7"/>
+      <c r="G183" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="H183" s="10"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
-        <v>19</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C184" s="9"/>
-      <c r="D184" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E184" s="9"/>
+      <c r="E184" s="11"/>
       <c r="F184" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G184" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H184" s="7"/>
+      <c r="G184" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="H184" s="10"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
-        <v>20</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C185" s="9"/>
-      <c r="D185" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E185" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C185" s="11"/>
+      <c r="D185" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E185" s="10"/>
       <c r="F185" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G185" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H185" s="7"/>
+      <c r="G185" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H185" s="10"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="5">
-        <v>21</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C186" s="9"/>
-      <c r="D186" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E186" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C186" s="11"/>
+      <c r="D186" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E186" s="10"/>
       <c r="F186" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G186" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H186" s="7"/>
+      <c r="G186" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H186" s="10"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
-        <v>22</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C187" s="9"/>
-      <c r="D187" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E187" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E187" s="11"/>
       <c r="F187" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G187" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H187" s="7"/>
+      <c r="G187" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H187" s="10"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
-        <v>23</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C188" s="9"/>
-      <c r="D188" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E188" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C188" s="11"/>
+      <c r="D188" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E188" s="10"/>
       <c r="F188" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G188" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H188" s="7"/>
+      <c r="G188" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H188" s="10"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
-        <v>24</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C189" s="9"/>
-      <c r="D189" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E189" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C189" s="11"/>
+      <c r="D189" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E189" s="10"/>
       <c r="F189" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G189" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H189" s="7"/>
+      <c r="G189" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H189" s="10"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
-        <v>25</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C190" s="9"/>
-      <c r="D190" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C190" s="11"/>
+      <c r="D190" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E190" s="7"/>
+      <c r="E190" s="10"/>
       <c r="F190" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G190" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H190" s="7"/>
+      <c r="G190" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="H190" s="10"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
-        <v>26</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C191" s="9"/>
-      <c r="D191" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C191" s="11"/>
+      <c r="D191" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E191" s="7"/>
+      <c r="E191" s="10"/>
       <c r="F191" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G191" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H191" s="7"/>
+      <c r="G191" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H191" s="10"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="5">
-        <v>27</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C192" s="9"/>
-      <c r="D192" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C192" s="11"/>
+      <c r="D192" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E192" s="7"/>
+      <c r="E192" s="10"/>
       <c r="F192" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G192" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H192" s="7"/>
+      <c r="G192" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="H192" s="10"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
-        <v>28</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C193" s="9"/>
-      <c r="D193" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C193" s="11"/>
+      <c r="D193" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E193" s="7"/>
+      <c r="E193" s="10"/>
       <c r="F193" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G193" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H193" s="7"/>
+      <c r="G193" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H193" s="10"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="5">
-        <v>29</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C194" s="9"/>
-      <c r="D194" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C194" s="11"/>
+      <c r="D194" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E194" s="7"/>
+      <c r="E194" s="10"/>
       <c r="F194" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G194" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H194" s="7"/>
+      <c r="G194" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H194" s="10"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
-        <v>30</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C195" s="9"/>
-      <c r="D195" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C195" s="11"/>
+      <c r="D195" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E195" s="7"/>
+      <c r="E195" s="10"/>
       <c r="F195" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G195" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H195" s="7"/>
+      <c r="G195" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H195" s="10"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
-        <v>31</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C196" s="7"/>
-      <c r="D196" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C196" s="11"/>
+      <c r="D196" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E196" s="7"/>
+      <c r="E196" s="10"/>
       <c r="F196" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G196" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H196" s="7"/>
+      <c r="G196" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H196" s="10"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
-        <v>32</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C197" s="7"/>
-      <c r="D197" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C197" s="11"/>
+      <c r="D197" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E197" s="7"/>
+      <c r="E197" s="10"/>
       <c r="F197" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G197" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H197" s="7"/>
+      <c r="G197" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H197" s="10"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
-        <v>33</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C198" s="7"/>
-      <c r="D198" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C198" s="11"/>
+      <c r="D198" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E198" s="7"/>
+      <c r="E198" s="10"/>
       <c r="F198" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G198" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H198" s="7"/>
+      <c r="G198" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H198" s="10"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
-        <v>34</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C199" s="7"/>
-      <c r="D199" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E199" s="7"/>
+      <c r="E199" s="10"/>
       <c r="F199" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G199" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H199" s="7"/>
+      <c r="G199" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H199" s="10"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
-        <v>35</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D200" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E200" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E200" s="10"/>
       <c r="F200" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G200" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H200" s="7"/>
+      <c r="G200" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H200" s="10"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
-        <v>36</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C201" s="7"/>
-      <c r="D201" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E201" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E201" s="10"/>
       <c r="F201" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G201" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H201" s="7"/>
+      <c r="G201" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H201" s="10"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="5">
+        <v>34</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E202" s="10"/>
+      <c r="F202" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G202" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H202" s="10"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="5">
+        <v>35</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E203" s="10"/>
+      <c r="F203" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G203" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="H203" s="10"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="5">
+        <v>36</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C204" s="10"/>
+      <c r="D204" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E204" s="10"/>
+      <c r="F204" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G204" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H204" s="10"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="5">
         <v>37</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B205" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C202" s="7"/>
-      <c r="D202" s="7" t="s">
+      <c r="C205" s="10"/>
+      <c r="D205" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E202" s="7"/>
-      <c r="F202" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G202" s="7" t="s">
+      <c r="E205" s="10"/>
+      <c r="F205" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G205" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="H202" s="7"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A203" s="5"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A204" s="5"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B205" s="6"/>
-      <c r="C205" s="6"/>
-      <c r="D205" s="6"/>
-      <c r="E205" s="6"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="8"/>
-      <c r="H205" s="8"/>
+      <c r="H205" s="10"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
-      <c r="B206" s="8"/>
-      <c r="C206" s="8"/>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="8"/>
-      <c r="H206" s="8"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A207" s="5" t="s">
+      <c r="A207" s="5"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="9"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="5"/>
+      <c r="B209" s="9"/>
+      <c r="C209" s="9"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="9"/>
+      <c r="H209" s="9"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="8"/>
-      <c r="H207" s="8"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A208" s="5" t="s">
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="9"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="9"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="8"/>
-      <c r="E208" s="8"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="8"/>
-      <c r="H208" s="8"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A209" s="3" t="s">
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="9"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="9"/>
+      <c r="H211" s="9"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="B212" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C209" s="10"/>
-      <c r="D209" s="10" t="s">
+      <c r="C212" s="12"/>
+      <c r="D212" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E209" s="10"/>
-      <c r="F209" s="3" t="s">
+      <c r="E212" s="12"/>
+      <c r="F212" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G209" s="10" t="s">
+      <c r="G212" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H209" s="10"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A210" s="5">
-        <v>1</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C210" s="7"/>
-      <c r="D210" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E210" s="7"/>
-      <c r="F210" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G210" s="7"/>
-      <c r="H210" s="7"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="5">
-        <v>2</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C211" s="7"/>
-      <c r="D211" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E211" s="7"/>
-      <c r="F211" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G211" s="7"/>
-      <c r="H211" s="7"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A212" s="5">
-        <v>3</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C212" s="7"/>
-      <c r="D212" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E212" s="7"/>
-      <c r="F212" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
+      <c r="H212" s="12"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="5">
-        <v>4</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C213" s="7"/>
-      <c r="D213" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E213" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" s="10"/>
       <c r="F213" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
+      <c r="G213" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="H213" s="10"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="5">
-        <v>5</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C214" s="9"/>
-      <c r="D214" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E214" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E214" s="10"/>
       <c r="F214" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
+      <c r="G214" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="H214" s="10"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="5">
-        <v>6</v>
-      </c>
-      <c r="B215" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C215" s="9"/>
-      <c r="D215" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E215" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E215" s="10"/>
       <c r="F215" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
+      <c r="G215" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="H215" s="9"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="5">
-        <v>7</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C216" s="9"/>
-      <c r="D216" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E216" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E216" s="10"/>
       <c r="F216" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G216" s="5"/>
-      <c r="H216" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="G216" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="H216" s="9"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="5">
-        <v>8</v>
-      </c>
-      <c r="B217" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C217" s="9"/>
-      <c r="D217" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E217" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C217" s="11"/>
+      <c r="D217" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E217" s="10"/>
       <c r="F217" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G217" s="5"/>
-      <c r="H217" s="5"/>
+      <c r="G217" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="H217" s="9"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="5">
-        <v>9</v>
-      </c>
-      <c r="B218" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C218" s="9"/>
-      <c r="D218" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E218" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C218" s="11"/>
+      <c r="D218" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E218" s="10"/>
       <c r="F218" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
+      <c r="G218" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H218" s="8"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="5">
-        <v>10</v>
-      </c>
-      <c r="B219" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C219" s="9"/>
-      <c r="D219" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E219" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C219" s="11"/>
+      <c r="D219" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219" s="10"/>
       <c r="F219" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G219" s="5"/>
-      <c r="H219" s="5"/>
+      <c r="G219" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="H219" s="8"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="5">
-        <v>11</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C220" s="9"/>
-      <c r="D220" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E220" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C220" s="11"/>
+      <c r="D220" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E220" s="10"/>
       <c r="F220" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G220" s="5"/>
-      <c r="H220" s="5"/>
+      <c r="G220" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H220" s="8"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="5">
-        <v>12</v>
-      </c>
-      <c r="B221" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C221" s="9"/>
-      <c r="D221" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E221" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C221" s="11"/>
+      <c r="D221" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E221" s="10"/>
       <c r="F221" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G221" s="5"/>
-      <c r="H221" s="5"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="9"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="5">
+        <v>10</v>
+      </c>
+      <c r="B222" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C222" s="11"/>
+      <c r="D222" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E222" s="10"/>
+      <c r="F222" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G222" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="H222" s="8"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="5">
+        <v>11</v>
+      </c>
+      <c r="B223" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C223" s="11"/>
+      <c r="D223" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223" s="10"/>
+      <c r="F223" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G223" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="H223" s="8"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="5">
+        <v>12</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C224" s="11"/>
+      <c r="D224" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E224" s="10"/>
+      <c r="F224" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G224" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H224" s="8"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="5">
         <v>13</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B225" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C222" s="9"/>
-      <c r="D222" s="7" t="s">
+      <c r="C225" s="11"/>
+      <c r="D225" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E222" s="7"/>
-      <c r="F222" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G222" s="5"/>
-      <c r="H222" s="5"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A223" s="5"/>
-      <c r="B223" s="9"/>
-      <c r="C223" s="9"/>
-      <c r="D223" s="9"/>
-      <c r="E223" s="9"/>
-      <c r="F223" s="5"/>
-      <c r="G223" s="5"/>
-      <c r="H223" s="5"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B225" s="6"/>
-      <c r="C225" s="6"/>
-      <c r="D225" s="6"/>
-      <c r="E225" s="6"/>
-      <c r="F225" s="5"/>
-      <c r="G225" s="8"/>
-      <c r="H225" s="8"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G225" s="9"/>
+      <c r="H225" s="9"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="5"/>
-      <c r="B226" s="8"/>
-      <c r="C226" s="8"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
+      <c r="B226" s="11"/>
+      <c r="C226" s="11"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
       <c r="F226" s="5"/>
-      <c r="G226" s="8"/>
-      <c r="H226" s="8"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A227" s="5" t="s">
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B228" s="6"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="9"/>
+      <c r="H228" s="9"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" s="5"/>
+      <c r="B229" s="9"/>
+      <c r="C229" s="9"/>
+      <c r="D229" s="9"/>
+      <c r="E229" s="9"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="9"/>
+      <c r="H229" s="9"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="8"/>
-      <c r="H227" s="8"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A228" s="5" t="s">
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="9"/>
+      <c r="E230" s="9"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="9"/>
+      <c r="H230" s="9"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
-      <c r="F228" s="5"/>
-      <c r="G228" s="8"/>
-      <c r="H228" s="8"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A229" s="3" t="s">
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="9"/>
+      <c r="E231" s="9"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="9"/>
+      <c r="H231" s="9"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B229" s="10" t="s">
+      <c r="B232" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C229" s="10"/>
-      <c r="D229" s="10" t="s">
+      <c r="C232" s="12"/>
+      <c r="D232" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E229" s="10"/>
-      <c r="F229" s="3" t="s">
+      <c r="E232" s="12"/>
+      <c r="F232" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G229" s="10" t="s">
+      <c r="G232" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H229" s="10"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A230" s="5">
-        <v>1</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C230" s="7"/>
-      <c r="D230" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E230" s="7"/>
-      <c r="F230" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G230" s="7"/>
-      <c r="H230" s="7"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A231" s="5">
-        <v>2</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C231" s="7"/>
-      <c r="D231" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E231" s="7"/>
-      <c r="F231" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G231" s="7"/>
-      <c r="H231" s="7"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A232" s="5">
-        <v>3</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C232" s="7"/>
-      <c r="D232" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E232" s="7"/>
-      <c r="F232" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G232" s="5"/>
-      <c r="H232" s="5"/>
+      <c r="H232" s="12"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="5">
-        <v>4</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C233" s="7"/>
-      <c r="D233" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E233" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E233" s="10"/>
       <c r="F233" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G233" s="5"/>
-      <c r="H233" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="G233" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H233" s="10"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="5">
+        <v>2</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E234" s="10"/>
+      <c r="F234" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G234" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="H234" s="10"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" s="5">
+        <v>3</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C235" s="10"/>
+      <c r="D235" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E235" s="10"/>
+      <c r="F235" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G235" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="H235" s="9"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" s="5">
+        <v>4</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C236" s="10"/>
+      <c r="D236" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E236" s="10"/>
+      <c r="F236" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G236" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="H236" s="9"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" s="5">
         <v>5</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B237" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C234" s="9"/>
-      <c r="D234" s="7" t="s">
+      <c r="C237" s="11"/>
+      <c r="D237" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E234" s="7"/>
-      <c r="F234" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G234" s="5"/>
-      <c r="H234" s="5"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A235" s="5"/>
-      <c r="B235" s="9"/>
-      <c r="C235" s="9"/>
-      <c r="D235" s="7"/>
-      <c r="E235" s="7"/>
-      <c r="F235" s="5"/>
-      <c r="G235" s="5"/>
-      <c r="H235" s="5"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A236" s="5"/>
-      <c r="B236" s="9"/>
-      <c r="C236" s="9"/>
-      <c r="D236" s="7"/>
-      <c r="E236" s="7"/>
-      <c r="F236" s="5"/>
-      <c r="G236" s="5"/>
-      <c r="H236" s="5"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A237" s="5"/>
-      <c r="B237" s="9"/>
-      <c r="C237" s="9"/>
-      <c r="D237" s="7"/>
-      <c r="E237" s="7"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
+      <c r="E237" s="10"/>
+      <c r="F237" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G237" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="H237" s="9"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="5"/>
-      <c r="B238" s="9"/>
-      <c r="C238" s="9"/>
-      <c r="D238" s="7"/>
-      <c r="E238" s="7"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="10"/>
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
       <c r="H238" s="5"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="5"/>
-      <c r="B239" s="9"/>
-      <c r="C239" s="9"/>
-      <c r="D239" s="7"/>
-      <c r="E239" s="7"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="10"/>
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
       <c r="H239" s="5"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="5"/>
-      <c r="B240" s="9"/>
-      <c r="C240" s="9"/>
-      <c r="D240" s="7"/>
-      <c r="E240" s="7"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="10"/>
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
       <c r="H240" s="5"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="5"/>
-      <c r="B241" s="9"/>
-      <c r="C241" s="9"/>
-      <c r="D241" s="7"/>
-      <c r="E241" s="7"/>
+      <c r="B241" s="11"/>
+      <c r="C241" s="11"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="10"/>
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
       <c r="H241" s="5"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="5"/>
-      <c r="B242" s="9"/>
-      <c r="C242" s="9"/>
-      <c r="D242" s="7"/>
-      <c r="E242" s="7"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="11"/>
+      <c r="D242" s="10"/>
+      <c r="E242" s="10"/>
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
       <c r="H242" s="5"/>
     </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" s="5"/>
+      <c r="B243" s="11"/>
+      <c r="C243" s="11"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="10"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" s="5"/>
+      <c r="B244" s="11"/>
+      <c r="C244" s="11"/>
+      <c r="D244" s="10"/>
+      <c r="E244" s="10"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="5"/>
+      <c r="B245" s="11"/>
+      <c r="C245" s="11"/>
+      <c r="D245" s="10"/>
+      <c r="E245" s="10"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="611">
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
+  <mergeCells count="625">
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G161:H161"/>
     <mergeCell ref="G150:H150"/>
     <mergeCell ref="G151:H151"/>
     <mergeCell ref="G152:H152"/>
     <mergeCell ref="G153:H153"/>
     <mergeCell ref="G154:H154"/>
     <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
     <mergeCell ref="G193:H193"/>
     <mergeCell ref="G194:H194"/>
     <mergeCell ref="G195:H195"/>
     <mergeCell ref="G196:H196"/>
     <mergeCell ref="G197:H197"/>
     <mergeCell ref="G198:H198"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
     <mergeCell ref="G184:H184"/>
     <mergeCell ref="G185:H185"/>
     <mergeCell ref="G186:H186"/>
     <mergeCell ref="G187:H187"/>
     <mergeCell ref="G188:H188"/>
     <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G192:H192"/>
     <mergeCell ref="G175:H175"/>
     <mergeCell ref="G176:H176"/>
     <mergeCell ref="G177:H177"/>
     <mergeCell ref="G178:H178"/>
     <mergeCell ref="G179:H179"/>
     <mergeCell ref="G180:H180"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="G183:H183"/>
     <mergeCell ref="G132:H132"/>
     <mergeCell ref="G133:H133"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="G135:H135"/>
     <mergeCell ref="G136:H136"/>
     <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="D241:E241"/>
     <mergeCell ref="B242:C242"/>
     <mergeCell ref="D242:E242"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="D236:E236"/>
     <mergeCell ref="B237:C237"/>
     <mergeCell ref="D237:E237"/>
     <mergeCell ref="B238:C238"/>
     <mergeCell ref="D238:E238"/>
     <mergeCell ref="B239:C239"/>
     <mergeCell ref="D239:E239"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="G231:H231"/>
     <mergeCell ref="B232:C232"/>
     <mergeCell ref="D232:E232"/>
+    <mergeCell ref="G232:H232"/>
     <mergeCell ref="B233:C233"/>
     <mergeCell ref="D233:E233"/>
+    <mergeCell ref="G233:H233"/>
     <mergeCell ref="B234:C234"/>
     <mergeCell ref="D234:E234"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="G234:H234"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="D226:E226"/>
     <mergeCell ref="G228:H228"/>
     <mergeCell ref="B229:C229"/>
     <mergeCell ref="D229:E229"/>
     <mergeCell ref="G229:H229"/>
-    <mergeCell ref="B230:C230"/>
     <mergeCell ref="D230:E230"/>
     <mergeCell ref="G230:H230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="D231:E231"/>
-    <mergeCell ref="G231:H231"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="D221:E221"/>
     <mergeCell ref="B222:C222"/>
     <mergeCell ref="D222:E222"/>
     <mergeCell ref="B223:C223"/>
     <mergeCell ref="D223:E223"/>
-    <mergeCell ref="G225:H225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="G226:H226"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="D216:E216"/>
     <mergeCell ref="B217:C217"/>
     <mergeCell ref="D217:E217"/>
     <mergeCell ref="B218:C218"/>
     <mergeCell ref="D218:E218"/>
     <mergeCell ref="B219:C219"/>
     <mergeCell ref="D219:E219"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="D221:E221"/>
     <mergeCell ref="B212:C212"/>
     <mergeCell ref="D212:E212"/>
+    <mergeCell ref="G212:H212"/>
     <mergeCell ref="B213:C213"/>
     <mergeCell ref="D213:E213"/>
+    <mergeCell ref="G213:H213"/>
     <mergeCell ref="B214:C214"/>
     <mergeCell ref="D214:E214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="G214:H214"/>
+    <mergeCell ref="G208:H208"/>
     <mergeCell ref="B209:C209"/>
     <mergeCell ref="D209:E209"/>
     <mergeCell ref="G209:H209"/>
-    <mergeCell ref="B210:C210"/>
     <mergeCell ref="D210:E210"/>
     <mergeCell ref="G210:H210"/>
-    <mergeCell ref="B211:C211"/>
     <mergeCell ref="D211:E211"/>
     <mergeCell ref="G211:H211"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
     <mergeCell ref="B201:C201"/>
     <mergeCell ref="B202:C202"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
     <mergeCell ref="D200:E200"/>
     <mergeCell ref="D201:E201"/>
     <mergeCell ref="D202:E202"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="D205:E205"/>
     <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="D191:E191"/>
     <mergeCell ref="B192:C192"/>
     <mergeCell ref="D192:E192"/>
     <mergeCell ref="B193:C193"/>
     <mergeCell ref="D193:E193"/>
     <mergeCell ref="B194:C194"/>
     <mergeCell ref="D194:E194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="D186:E186"/>
     <mergeCell ref="B187:C187"/>
     <mergeCell ref="D187:E187"/>
     <mergeCell ref="B188:C188"/>
     <mergeCell ref="D188:E188"/>
     <mergeCell ref="B189:C189"/>
     <mergeCell ref="D189:E189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="D181:E181"/>
     <mergeCell ref="B182:C182"/>
     <mergeCell ref="D182:E182"/>
     <mergeCell ref="B183:C183"/>
     <mergeCell ref="D183:E183"/>
     <mergeCell ref="B184:C184"/>
     <mergeCell ref="D184:E184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="D176:E176"/>
     <mergeCell ref="B177:C177"/>
     <mergeCell ref="D177:E177"/>
     <mergeCell ref="B178:C178"/>
     <mergeCell ref="D178:E178"/>
     <mergeCell ref="B179:C179"/>
     <mergeCell ref="D179:E179"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="G171:H171"/>
     <mergeCell ref="B172:C172"/>
     <mergeCell ref="D172:E172"/>
+    <mergeCell ref="G172:H172"/>
     <mergeCell ref="B173:C173"/>
     <mergeCell ref="D173:E173"/>
     <mergeCell ref="B174:C174"/>
     <mergeCell ref="D174:E174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="G167:H167"/>
     <mergeCell ref="B168:C168"/>
     <mergeCell ref="D168:E168"/>
     <mergeCell ref="G168:H168"/>
@@ -5576,35 +5691,18 @@
     <mergeCell ref="G169:H169"/>
     <mergeCell ref="B170:C170"/>
     <mergeCell ref="D170:E170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="D171:E171"/>
     <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
     <mergeCell ref="D164:E164"/>
     <mergeCell ref="G164:H164"/>
     <mergeCell ref="B165:C165"/>
     <mergeCell ref="D165:E165"/>
     <mergeCell ref="G165:H165"/>
-    <mergeCell ref="B166:C166"/>
     <mergeCell ref="D166:E166"/>
     <mergeCell ref="G166:H166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
     <mergeCell ref="D150:E150"/>
     <mergeCell ref="D151:E151"/>
     <mergeCell ref="D152:E152"/>
@@ -5613,72 +5711,75 @@
     <mergeCell ref="D155:E155"/>
     <mergeCell ref="D156:E156"/>
     <mergeCell ref="D157:E157"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D160:E160"/>
     <mergeCell ref="B150:C150"/>
     <mergeCell ref="B151:C151"/>
     <mergeCell ref="B152:C152"/>
     <mergeCell ref="B153:C153"/>
     <mergeCell ref="B154:C154"/>
     <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="G143:H143"/>
     <mergeCell ref="B144:C144"/>
     <mergeCell ref="D144:E144"/>
     <mergeCell ref="G144:H144"/>
-    <mergeCell ref="B145:C145"/>
     <mergeCell ref="D145:E145"/>
     <mergeCell ref="G145:H145"/>
-    <mergeCell ref="B146:C146"/>
     <mergeCell ref="D146:E146"/>
     <mergeCell ref="G146:H146"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D131:E131"/>
     <mergeCell ref="D132:E132"/>
     <mergeCell ref="D133:E133"/>
     <mergeCell ref="D134:E134"/>
     <mergeCell ref="D135:E135"/>
     <mergeCell ref="D136:E136"/>
     <mergeCell ref="D137:E137"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D140:E140"/>
     <mergeCell ref="B132:C132"/>
     <mergeCell ref="B133:C133"/>
     <mergeCell ref="B134:C134"/>
     <mergeCell ref="B135:C135"/>
     <mergeCell ref="B136:C136"/>
     <mergeCell ref="B137:C137"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
     <mergeCell ref="D128:E128"/>
     <mergeCell ref="G128:H128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="G131:H131"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="G127:H127"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="G17:H17"/>
@@ -5846,112 +5947,112 @@
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="D79:E79"/>
     <mergeCell ref="D86:E86"/>
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="D87:E87"/>
     <mergeCell ref="G87:H87"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="G94:H94"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="D91:E91"/>
     <mergeCell ref="G91:H91"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
     <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
     <mergeCell ref="G95:H95"/>
     <mergeCell ref="G96:H96"/>
     <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
     <mergeCell ref="B98:C98"/>
     <mergeCell ref="D98:E98"/>
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="D99:E99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="D95:E95"/>
     <mergeCell ref="B96:C96"/>
     <mergeCell ref="D96:E96"/>
     <mergeCell ref="B97:C97"/>
     <mergeCell ref="D97:E97"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
     <mergeCell ref="D107:E107"/>
     <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D103:E103"/>
     <mergeCell ref="D104:E104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="G114:H114"/>
     <mergeCell ref="B111:C111"/>
     <mergeCell ref="D111:E111"/>
     <mergeCell ref="G111:H111"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="G115:H115"/>
     <mergeCell ref="B112:C112"/>
     <mergeCell ref="D112:E112"/>
     <mergeCell ref="G112:H112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="G116:H116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
     <mergeCell ref="G117:H117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="B122:C122"/>
     <mergeCell ref="D122:E122"/>
     <mergeCell ref="G122:H122"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="G119:H119"/>
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="D120:E120"/>
     <mergeCell ref="G120:H120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="G124:H124"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G36:H36"/>
@@ -5986,6 +6087,20 @@
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="G78:H78"/>
     <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="G225:H225"/>
+    <mergeCell ref="G235:H235"/>
+    <mergeCell ref="G236:H236"/>
+    <mergeCell ref="G237:H237"/>
+    <mergeCell ref="G215:H215"/>
+    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6161,15 +6276,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{922304E2-F9D1-4F0A-B824-C64D7672D3AB}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="92678bba-a061-46eb-8c00-c724b1c42807"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
